--- a/biology/Médecine/TRPM2/TRPM2.xlsx
+++ b/biology/Médecine/TRPM2/TRPM2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le TRPM2 (« Transient receptor potential cation channel, subfamily M, member 2 ») est une protéine, de type canal calcique dont le gène est TRPM2 situé sur le chromosome 21 humain.
 </t>
@@ -511,11 +523,13 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le canal est activé par l'adénosine diphosphoribose, le nicotinamide, le peroxyde d'hydrogène[5] et le calcium intracellulaire[6].
-Il intervient dans la sécrétion d'insuline après charge glucidique ou injection d'incrétines[7].
-Il permet également la survenue d'une inflammation en augmentant la production de chimiokines[8] et intervient dans l'apoptose[9] par l'interaction de lui-même avec une version épissée de cette même protéine[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le canal est activé par l'adénosine diphosphoribose, le nicotinamide, le peroxyde d'hydrogène et le calcium intracellulaire.
+Il intervient dans la sécrétion d'insuline après charge glucidique ou injection d'incrétines.
+Il permet également la survenue d'une inflammation en augmentant la production de chimiokines et intervient dans l'apoptose par l'interaction de lui-même avec une version épissée de cette même protéine.
 </t>
         </is>
       </c>
